--- a/adg-api/src/main/resources/viettin/bang-ke-nop-thue-02.xlsx
+++ b/adg-api/src/main/resources/viettin/bang-ke-nop-thue-02.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luan.phm/engineering/Projects/ADongGroup/adg-services-v2/adg-api/src/main/resources/viettin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DC85D5-1FAC-9C4A-9931-1570A5D8FA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FD744F-EA11-B143-96AA-03652EA3414D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="34400" windowHeight="28340" xr2:uid="{6DC3F0ED-E5E3-4E43-8983-99D60E569037}"/>
   </bookViews>
@@ -233,9 +233,6 @@
     <t>Mã NDKTTM</t>
   </si>
   <si>
-    <t>Số tiền</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -254,12 +251,6 @@
     <t>Người nộp tiền                 Kế toán trưởng       Thủ trưởng đơn vị          Người thực hiện giao dịch</t>
   </si>
   <si>
-    <t xml:space="preserve">                                    Ngày..…..tháng…....năm 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    Ngân hàng kho bạc NN</t>
-  </si>
-  <si>
     <t>……………………………………………………………………………………………………………</t>
   </si>
   <si>
@@ -272,7 +263,16 @@
     <t xml:space="preserve">      Ký hiệu: 01/BKNT</t>
   </si>
   <si>
-    <t>trích TK số: … hoặc thu tiền mặt để nộp NSNN theo:</t>
+    <t>Số tiền (VND)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               Ngày..…..tháng…....năm 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Ngân hàng kho bạc NN</t>
+  </si>
+  <si>
+    <t>trích TK số: … hoặc thu tiền mặt để nộp NSNN</t>
   </si>
 </sst>
 </file>
@@ -350,7 +350,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -373,130 +373,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -518,10 +401,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -530,113 +409,55 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -644,32 +465,14 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -677,11 +480,10 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{1EDF172C-F058-6C45-B295-3BB844EB217D}"/>
@@ -2371,6 +2173,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5763A976-6E07-9A43-A99C-D1B10C1DEBF7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0"/>
@@ -2387,28 +2192,28 @@
     <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:9" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1" spans="2:9" s="9" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:9" s="9" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="34" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="35"/>
+      <c r="G3" s="21"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="17" t="s">
         <v>2</v>
       </c>
@@ -2416,252 +2221,252 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="38"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="22"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="48"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="26"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="47" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="48"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="18"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="20"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="18"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="18"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="14"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="18"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="18"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="54" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="18"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
@@ -2669,7 +2474,7 @@
       <c r="B25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -2682,123 +2487,123 @@
         <v>28</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="8"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="9"/>
+      <c r="G26" s="8"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="58"/>
+    <row r="27" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="18"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="46"/>
+      <c r="B28" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="25"/>
+      <c r="B29" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="24"/>
-      <c r="C30" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="25"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="11"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="24"/>
-      <c r="C31" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="F31" s="49"/>
-      <c r="G31" s="50"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="53"/>
+      <c r="B32" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="50"/>
+      <c r="B33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="29"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="30"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="33"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2818,7 +2623,7 @@
     <mergeCell ref="F7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
